--- a/data/final_data/Pre Experiment Survey - Olive Oil Taste Test (Responses).xlsx
+++ b/data/final_data/Pre Experiment Survey - Olive Oil Taste Test (Responses).xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Form Responses 1'!$A$1:$Q$69</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="178">
   <si>
     <t>Timestamp</t>
   </si>
@@ -518,6 +520,33 @@
   </si>
   <si>
     <t>Naomi Lavori</t>
+  </si>
+  <si>
+    <t>kelseymplatt@gmail.com</t>
+  </si>
+  <si>
+    <t>Kelsey Platt</t>
+  </si>
+  <si>
+    <t>0, lol</t>
+  </si>
+  <si>
+    <t>laurenhoffman156@gmail.com</t>
+  </si>
+  <si>
+    <t>Lauren Hoffman</t>
+  </si>
+  <si>
+    <t>adler.erica.n@gmail.com / 610-348-7211</t>
+  </si>
+  <si>
+    <t>Erica Adler</t>
+  </si>
+  <si>
+    <t>upkins@google.com</t>
+  </si>
+  <si>
+    <t>Caleb Upkins</t>
   </si>
 </sst>
 </file>
@@ -2674,7 +2703,124 @@
         <v>15</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>44657.38864493056</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>44657.390790254634</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>44657.3945475</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>44657.489441087964</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="$A$1:$Q$69"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>